--- a/conf/logisthub-1/monitor.xlsx
+++ b/conf/logisthub-1/monitor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16740"/>
+    <workbookView windowHeight="16900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,8 +237,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -706,152 +726,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -859,33 +879,54 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1212,15 +1253,15 @@
   <sheetPr/>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L$1:M$1048576"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="2" max="2" width="43.0089285714286" style="3" customWidth="1"/>
+    <col min="2" max="2" width="43.0089285714286" style="4" customWidth="1"/>
     <col min="3" max="3" width="51.6339285714286" customWidth="1"/>
     <col min="4" max="4" width="21.8660714285714" customWidth="1"/>
     <col min="5" max="5" width="38.2410714285714" customWidth="1"/>
@@ -1230,8 +1271,8 @@
     <col min="9" max="9" width="21.8660714285714" customWidth="1"/>
     <col min="10" max="10" width="50.75" customWidth="1"/>
     <col min="11" max="11" width="21.8660714285714" customWidth="1"/>
-    <col min="12" max="12" width="13.3839285714286" style="4" customWidth="1"/>
-    <col min="13" max="13" width="15.1696428571429" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.3839285714286" style="5" customWidth="1"/>
+    <col min="13" max="13" width="15.1696428571429" style="5" customWidth="1"/>
     <col min="14" max="15" width="21.8660714285714" customWidth="1"/>
     <col min="16" max="16" width="40.9285714285714" customWidth="1"/>
     <col min="17" max="19" width="21.8660714285714" customWidth="1"/>
@@ -1242,61 +1283,61 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1304,68 +1345,68 @@
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" ht="141" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="9" t="s">
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1373,202 +1414,202 @@
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" ht="18" spans="1:13">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" ht="18" spans="1:13">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" ht="18" spans="1:13">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G7" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
     </row>
-    <row r="8" ht="36" spans="1:13">
-      <c r="A8" s="2" t="s">
+    <row r="8" s="3" customFormat="1" ht="36" spans="1:13">
+      <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
     </row>
-    <row r="9" ht="53" spans="1:13">
-      <c r="A9" s="2" t="s">
+    <row r="9" s="3" customFormat="1" ht="53" spans="1:13">
+      <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" ht="36" spans="1:13">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" ht="36" spans="1:13">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" customFormat="1" spans="12:13">
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="2">
